--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Sem7\COMP1640 Enterprise Web Software Development\Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Sem7\COMP1640 Enterprise Web Software Development\Coursework\Github\CMR_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="39">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -138,13 +138,13 @@
     <t>Chi, Ha, Truong</t>
   </si>
   <si>
-    <t>Daniel,Giap</t>
-  </si>
-  <si>
-    <t>Chi, Ha, Giap</t>
-  </si>
-  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Chi, Ha, Giap, Truong</t>
+  </si>
+  <si>
+    <t>Daniel,Giap, Onass</t>
   </si>
 </sst>
 </file>
@@ -330,20 +330,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -354,9 +345,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -366,14 +354,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -382,6 +376,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -511,11 +511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1344415712"/>
-        <c:axId val="1344414080"/>
+        <c:axId val="1582630688"/>
+        <c:axId val="1582621984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1344415712"/>
+        <c:axId val="1582630688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,7 +525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1344414080"/>
+        <c:crossAx val="1582621984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -533,7 +533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1344414080"/>
+        <c:axId val="1582621984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1344415712"/>
+        <c:crossAx val="1582630688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -661,11 +661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1183278560"/>
-        <c:axId val="1183286720"/>
+        <c:axId val="1582631232"/>
+        <c:axId val="1582618720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1183278560"/>
+        <c:axId val="1582631232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1183286720"/>
+        <c:crossAx val="1582618720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -683,7 +683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1183286720"/>
+        <c:axId val="1582618720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,7 +694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1183278560"/>
+        <c:crossAx val="1582631232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -811,11 +811,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1183153248"/>
-        <c:axId val="1183149440"/>
+        <c:axId val="1582625248"/>
+        <c:axId val="1582627424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1183153248"/>
+        <c:axId val="1582625248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1183149440"/>
+        <c:crossAx val="1582627424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -833,7 +833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1183149440"/>
+        <c:axId val="1582627424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1183153248"/>
+        <c:crossAx val="1582625248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -961,11 +961,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1183151616"/>
-        <c:axId val="1341867776"/>
+        <c:axId val="1582626880"/>
+        <c:axId val="1582628512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1183151616"/>
+        <c:axId val="1582626880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1341867776"/>
+        <c:crossAx val="1582628512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -983,7 +983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1341867776"/>
+        <c:axId val="1582628512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1183151616"/>
+        <c:crossAx val="1582626880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1111,11 +1111,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1348308432"/>
-        <c:axId val="1348311152"/>
+        <c:axId val="1582629600"/>
+        <c:axId val="1582623072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1348308432"/>
+        <c:axId val="1582629600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +1125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1348311152"/>
+        <c:crossAx val="1582623072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1133,7 +1133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1348311152"/>
+        <c:axId val="1582623072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1348308432"/>
+        <c:crossAx val="1582629600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1640,7 +1640,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1655,252 +1655,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>7</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="11">
         <v>7</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="11">
         <v>7</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="11">
         <v>7</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="11">
         <v>7</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="14">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14">
+        <v>3</v>
+      </c>
+      <c r="H3" s="14">
+        <v>3</v>
+      </c>
+      <c r="I3" s="14">
+        <v>3</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="C5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="18">
-        <v>3</v>
-      </c>
-      <c r="F3" s="18">
-        <v>3</v>
-      </c>
-      <c r="G3" s="18">
-        <v>3</v>
-      </c>
-      <c r="H3" s="18">
-        <v>3</v>
-      </c>
-      <c r="I3" s="18">
-        <v>3</v>
-      </c>
-      <c r="J3" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11">
+        <v>7</v>
+      </c>
+      <c r="G6" s="11">
+        <v>7</v>
+      </c>
+      <c r="H6" s="11">
+        <v>7</v>
+      </c>
+      <c r="I6" s="11">
+        <v>7</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3</v>
+      </c>
+      <c r="F7" s="14">
+        <v>3</v>
+      </c>
+      <c r="G7" s="14">
+        <v>3</v>
+      </c>
+      <c r="H7" s="14">
+        <v>3</v>
+      </c>
+      <c r="I7" s="14">
+        <v>3</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18">
-        <v>3</v>
-      </c>
-      <c r="F4" s="18">
-        <v>3</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="E8" s="14">
+        <v>3</v>
+      </c>
+      <c r="F8" s="14">
+        <v>3</v>
+      </c>
+      <c r="G8" s="14">
         <v>2</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H8" s="14">
         <v>1</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J8" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="22" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="14">
-        <v>7</v>
-      </c>
-      <c r="F6" s="14">
-        <v>7</v>
-      </c>
-      <c r="G6" s="14">
-        <v>7</v>
-      </c>
-      <c r="H6" s="14">
-        <v>7</v>
-      </c>
-      <c r="I6" s="14">
-        <v>7</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="18">
-        <v>3</v>
-      </c>
-      <c r="F7" s="18">
-        <v>3</v>
-      </c>
-      <c r="G7" s="18">
-        <v>3</v>
-      </c>
-      <c r="H7" s="18">
-        <v>3</v>
-      </c>
-      <c r="I7" s="18">
-        <v>3</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="18">
-        <v>3</v>
-      </c>
-      <c r="F8" s="18">
-        <v>3</v>
-      </c>
-      <c r="G8" s="18">
-        <v>2</v>
-      </c>
-      <c r="H8" s="18">
-        <v>1</v>
-      </c>
-      <c r="I8" s="18">
-        <v>1</v>
-      </c>
-      <c r="J8" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
@@ -1919,8 +1923,8 @@
     <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1980,7 +1984,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1997,7 +2001,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
@@ -2012,13 +2016,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
@@ -2033,7 +2037,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2050,7 +2054,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
@@ -2065,7 +2069,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2080,7 +2084,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
@@ -2201,7 +2205,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2233,7 +2237,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2263,7 +2267,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2293,7 +2297,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2325,7 +2329,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2355,7 +2359,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2385,7 +2389,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -2521,7 +2525,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2553,7 +2557,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2583,7 +2587,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2613,7 +2617,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2645,7 +2649,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2675,7 +2679,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2705,7 +2709,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -2841,7 +2845,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2873,7 +2877,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2903,7 +2907,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2933,7 +2937,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2965,7 +2969,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2995,7 +2999,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -3025,7 +3029,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3112,17 +3116,51 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -3296,73 +3334,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3382,10 +3374,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="42">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Not started</t>
   </si>
   <si>
-    <t>As a Admin, i want to create Course &amp; assign to CL</t>
-  </si>
-  <si>
     <t>As a CL, I want assigned to a course  for 1 year</t>
   </si>
   <si>
@@ -141,10 +138,22 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Chi, Ha, Giap, Truong</t>
-  </si>
-  <si>
-    <t>Daniel,Giap, Onass</t>
+    <t>As a Admin, i want to create Course</t>
+  </si>
+  <si>
+    <t>As a Admin, i want to assign to CL</t>
+  </si>
+  <si>
+    <t>Daniel, Onass</t>
+  </si>
+  <si>
+    <t>Giap</t>
+  </si>
+  <si>
+    <t>Chi, Ha</t>
+  </si>
+  <si>
+    <t>Chi, Giáp</t>
   </si>
 </sst>
 </file>
@@ -197,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,77 +218,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -311,7 +255,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -336,52 +280,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -511,11 +430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1582630688"/>
-        <c:axId val="1582621984"/>
+        <c:axId val="-905383648"/>
+        <c:axId val="-663773856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582630688"/>
+        <c:axId val="-905383648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,7 +444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582621984"/>
+        <c:crossAx val="-663773856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -533,7 +452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582621984"/>
+        <c:axId val="-663773856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582630688"/>
+        <c:crossAx val="-905383648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -661,11 +580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1582631232"/>
-        <c:axId val="1582618720"/>
+        <c:axId val="-663780384"/>
+        <c:axId val="-663777664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582631232"/>
+        <c:axId val="-663780384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582618720"/>
+        <c:crossAx val="-663777664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -683,7 +602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582618720"/>
+        <c:axId val="-663777664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,7 +613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582631232"/>
+        <c:crossAx val="-663780384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -811,11 +730,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1582625248"/>
-        <c:axId val="1582627424"/>
+        <c:axId val="-663776576"/>
+        <c:axId val="-663775488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582625248"/>
+        <c:axId val="-663776576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582627424"/>
+        <c:crossAx val="-663775488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -833,7 +752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582627424"/>
+        <c:axId val="-663775488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582625248"/>
+        <c:crossAx val="-663776576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -961,11 +880,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1582626880"/>
-        <c:axId val="1582628512"/>
+        <c:axId val="-663778208"/>
+        <c:axId val="-663777120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582626880"/>
+        <c:axId val="-663778208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582628512"/>
+        <c:crossAx val="-663777120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -983,7 +902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582628512"/>
+        <c:axId val="-663777120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582626880"/>
+        <c:crossAx val="-663778208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1111,11 +1030,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1582629600"/>
-        <c:axId val="1582623072"/>
+        <c:axId val="-663441088"/>
+        <c:axId val="-663434016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582629600"/>
+        <c:axId val="-663441088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +1044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582623072"/>
+        <c:crossAx val="-663434016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1133,7 +1052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582623072"/>
+        <c:axId val="-663434016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582629600"/>
+        <c:crossAx val="-663441088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1640,7 +1559,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1687,41 +1606,41 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="14">
         <v>7</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="14">
         <v>7</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="14">
         <v>7</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="14">
         <v>7</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="14">
         <v>7</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>38</v>
@@ -1744,17 +1663,17 @@
       <c r="I3" s="14">
         <v>3</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -1774,64 +1693,64 @@
       <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>37</v>
+      <c r="A5" s="12"/>
+      <c r="B5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="14">
+        <v>7</v>
+      </c>
+      <c r="F6" s="14">
+        <v>7</v>
+      </c>
+      <c r="G6" s="14">
+        <v>7</v>
+      </c>
+      <c r="H6" s="14">
+        <v>7</v>
+      </c>
+      <c r="I6" s="14">
+        <v>7</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11">
-        <v>7</v>
-      </c>
-      <c r="F6" s="11">
-        <v>7</v>
-      </c>
-      <c r="G6" s="11">
-        <v>7</v>
-      </c>
-      <c r="H6" s="11">
-        <v>7</v>
-      </c>
-      <c r="I6" s="11">
-        <v>7</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>38</v>
@@ -1854,17 +1773,17 @@
       <c r="I7" s="14">
         <v>3</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>37</v>
+      <c r="C8" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>11</v>
@@ -1884,29 +1803,138 @@
       <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>37</v>
+      <c r="A9" s="12"/>
+      <c r="B9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="14">
+        <v>7</v>
+      </c>
+      <c r="F10" s="14">
+        <v>7</v>
+      </c>
+      <c r="G10" s="14">
+        <v>7</v>
+      </c>
+      <c r="H10" s="14">
+        <v>7</v>
+      </c>
+      <c r="I10" s="14">
+        <v>7</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14">
+        <v>3</v>
+      </c>
+      <c r="F11" s="14">
+        <v>3</v>
+      </c>
+      <c r="G11" s="14">
+        <v>3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>3</v>
+      </c>
+      <c r="I11" s="14">
+        <v>3</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>14</v>
@@ -1918,8 +1946,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1984,7 +2013,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2001,7 +2030,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
@@ -2016,13 +2045,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
@@ -2037,7 +2066,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2054,7 +2083,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
@@ -2069,7 +2098,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2084,7 +2113,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
@@ -2205,7 +2234,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2237,7 +2266,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2267,7 +2296,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2297,7 +2326,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2329,7 +2358,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2359,7 +2388,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2389,7 +2418,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -2525,7 +2554,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2557,7 +2586,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2587,7 +2616,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2617,7 +2646,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2649,7 +2678,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2679,7 +2708,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2709,7 +2738,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -2845,7 +2874,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2877,7 +2906,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2907,7 +2936,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2937,7 +2966,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2969,7 +2998,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2999,7 +3028,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -3029,7 +3058,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3114,50 +3143,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
@@ -3334,7 +3320,50 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3347,9 +3376,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3375,13 +3408,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -280,15 +280,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -299,8 +290,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -430,11 +430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-905383648"/>
-        <c:axId val="-663773856"/>
+        <c:axId val="635792608"/>
+        <c:axId val="635793696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-905383648"/>
+        <c:axId val="635792608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-663773856"/>
+        <c:crossAx val="635793696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -452,7 +452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-663773856"/>
+        <c:axId val="635793696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,7 +463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-905383648"/>
+        <c:crossAx val="635792608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -580,11 +580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-663780384"/>
-        <c:axId val="-663777664"/>
+        <c:axId val="635789344"/>
+        <c:axId val="688016064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-663780384"/>
+        <c:axId val="635789344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,7 +594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-663777664"/>
+        <c:crossAx val="688016064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -602,7 +602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-663777664"/>
+        <c:axId val="688016064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-663780384"/>
+        <c:crossAx val="635789344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -730,11 +730,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-663776576"/>
-        <c:axId val="-663775488"/>
+        <c:axId val="688027488"/>
+        <c:axId val="688019328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-663776576"/>
+        <c:axId val="688027488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,7 +744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-663775488"/>
+        <c:crossAx val="688019328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -752,7 +752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-663775488"/>
+        <c:axId val="688019328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -763,7 +763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-663776576"/>
+        <c:crossAx val="688027488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -880,11 +880,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-663778208"/>
-        <c:axId val="-663777120"/>
+        <c:axId val="688026944"/>
+        <c:axId val="688028576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-663778208"/>
+        <c:axId val="688026944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-663777120"/>
+        <c:crossAx val="688028576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -902,7 +902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-663777120"/>
+        <c:axId val="688028576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-663778208"/>
+        <c:crossAx val="688026944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1030,11 +1030,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-663441088"/>
-        <c:axId val="-663434016"/>
+        <c:axId val="688020416"/>
+        <c:axId val="688021504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-663441088"/>
+        <c:axId val="688020416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-663434016"/>
+        <c:crossAx val="688021504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1052,7 +1052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-663434016"/>
+        <c:axId val="688021504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-663441088"/>
+        <c:crossAx val="688020416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1606,334 +1606,334 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>7</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="11">
         <v>7</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="11">
         <v>7</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="11">
         <v>7</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="11">
         <v>7</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14">
-        <v>3</v>
-      </c>
-      <c r="F3" s="14">
-        <v>3</v>
-      </c>
-      <c r="G3" s="14">
-        <v>3</v>
-      </c>
-      <c r="H3" s="14">
-        <v>3</v>
-      </c>
-      <c r="I3" s="14">
-        <v>3</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11">
+        <v>3</v>
+      </c>
+      <c r="J3" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14">
-        <v>3</v>
-      </c>
-      <c r="F4" s="14">
-        <v>3</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
         <v>2</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="11">
         <v>1</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <v>1</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>7</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>7</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>7</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="11">
         <v>7</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <v>7</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="14">
-        <v>3</v>
-      </c>
-      <c r="F7" s="14">
-        <v>3</v>
-      </c>
-      <c r="G7" s="14">
-        <v>3</v>
-      </c>
-      <c r="H7" s="14">
-        <v>3</v>
-      </c>
-      <c r="I7" s="14">
-        <v>3</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="E7" s="11">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>3</v>
+      </c>
+      <c r="H7" s="11">
+        <v>3</v>
+      </c>
+      <c r="I7" s="11">
+        <v>3</v>
+      </c>
+      <c r="J7" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="14">
-        <v>3</v>
-      </c>
-      <c r="F8" s="14">
-        <v>3</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="E8" s="11">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>3</v>
+      </c>
+      <c r="G8" s="11">
         <v>2</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="11">
         <v>1</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="11">
         <v>1</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>7</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>7</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>7</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="11">
         <v>7</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="11">
         <v>7</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="14">
-        <v>3</v>
-      </c>
-      <c r="F11" s="14">
-        <v>3</v>
-      </c>
-      <c r="G11" s="14">
-        <v>3</v>
-      </c>
-      <c r="H11" s="14">
-        <v>3</v>
-      </c>
-      <c r="I11" s="14">
-        <v>3</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="E11" s="11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="14">
-        <v>3</v>
-      </c>
-      <c r="F12" s="14">
-        <v>3</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="E12" s="11">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11">
+        <v>3</v>
+      </c>
+      <c r="G12" s="11">
         <v>2</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="11">
         <v>1</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="11">
         <v>1</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -2013,7 +2013,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2030,7 +2030,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
@@ -2045,13 +2045,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
@@ -2066,7 +2066,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2083,7 +2083,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
@@ -2098,7 +2098,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2113,7 +2113,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
@@ -2234,7 +2234,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2266,7 +2266,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2296,7 +2296,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2326,7 +2326,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2358,7 +2358,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2388,7 +2388,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2418,7 +2418,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -2554,7 +2554,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2586,7 +2586,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2616,7 +2616,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2646,7 +2646,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2678,7 +2678,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2738,7 +2738,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -2874,7 +2874,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2906,7 +2906,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2936,7 +2936,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2966,7 +2966,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2998,7 +2998,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3028,7 +3028,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -3058,7 +3058,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3143,7 +3143,50 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
@@ -3320,50 +3363,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3376,13 +3376,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3408,9 +3404,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Sem7\COMP1640 Enterprise Web Software Development\Coursework\Github\CMR_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrbliss onass\Documents\GitHub\CMR_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="43">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Chi, Giáp</t>
+  </si>
+  <si>
+    <t>Daniel</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -430,11 +432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635792608"/>
-        <c:axId val="635793696"/>
+        <c:axId val="258889504"/>
+        <c:axId val="258891072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="635792608"/>
+        <c:axId val="258889504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635793696"/>
+        <c:crossAx val="258891072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -452,7 +454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="635793696"/>
+        <c:axId val="258891072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,7 +465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635792608"/>
+        <c:crossAx val="258889504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -580,11 +582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635789344"/>
-        <c:axId val="688016064"/>
+        <c:axId val="258884800"/>
+        <c:axId val="258884408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="635789344"/>
+        <c:axId val="258884800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,7 +596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="688016064"/>
+        <c:crossAx val="258884408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -602,7 +604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="688016064"/>
+        <c:axId val="258884408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635789344"/>
+        <c:crossAx val="258884800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -730,11 +732,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="688027488"/>
-        <c:axId val="688019328"/>
+        <c:axId val="260759544"/>
+        <c:axId val="260760328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="688027488"/>
+        <c:axId val="260759544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,7 +746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="688019328"/>
+        <c:crossAx val="260760328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -752,7 +754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="688019328"/>
+        <c:axId val="260760328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -763,7 +765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="688027488"/>
+        <c:crossAx val="260759544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -880,11 +882,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="688026944"/>
-        <c:axId val="688028576"/>
+        <c:axId val="260759936"/>
+        <c:axId val="260763072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="688026944"/>
+        <c:axId val="260759936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="688028576"/>
+        <c:crossAx val="260763072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -902,7 +904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="688028576"/>
+        <c:axId val="260763072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="688026944"/>
+        <c:crossAx val="260759936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1030,11 +1032,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="688020416"/>
-        <c:axId val="688021504"/>
+        <c:axId val="260760720"/>
+        <c:axId val="260765032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="688020416"/>
+        <c:axId val="260760720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="688021504"/>
+        <c:crossAx val="260765032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1052,7 +1054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="688021504"/>
+        <c:axId val="260765032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="688020416"/>
+        <c:crossAx val="260760720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1559,7 +1561,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1643,7 +1645,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>11</v>
@@ -3143,50 +3145,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
@@ -3363,7 +3322,50 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3376,9 +3378,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3404,13 +3410,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrbliss onass\Documents\GitHub\CMR_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Sem7\COMP1640 Enterprise Web Software Development\Coursework\Github\CMR_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="45">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Daniel</t>
+  </si>
+  <si>
+    <t>As a User member, I want to login to the page</t>
+  </si>
+  <si>
+    <t>Onass</t>
   </si>
 </sst>
 </file>
@@ -374,6 +380,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -432,11 +439,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="258889504"/>
-        <c:axId val="258891072"/>
+        <c:axId val="-1798652112"/>
+        <c:axId val="-1798643952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258889504"/>
+        <c:axId val="-1798652112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -446,7 +453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258891072"/>
+        <c:crossAx val="-1798643952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -454,7 +461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258891072"/>
+        <c:axId val="-1798643952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,7 +472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258889504"/>
+        <c:crossAx val="-1798652112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -582,11 +589,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="258884800"/>
-        <c:axId val="258884408"/>
+        <c:axId val="-1798639056"/>
+        <c:axId val="-1798640688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258884800"/>
+        <c:axId val="-1798639056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258884408"/>
+        <c:crossAx val="-1798640688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -604,7 +611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258884408"/>
+        <c:axId val="-1798640688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258884800"/>
+        <c:crossAx val="-1798639056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -732,11 +739,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="260759544"/>
-        <c:axId val="260760328"/>
+        <c:axId val="-1798639600"/>
+        <c:axId val="-1798651024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260759544"/>
+        <c:axId val="-1798639600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,7 +753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260760328"/>
+        <c:crossAx val="-1798651024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -754,7 +761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260760328"/>
+        <c:axId val="-1798651024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260759544"/>
+        <c:crossAx val="-1798639600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -882,11 +889,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="260759936"/>
-        <c:axId val="260763072"/>
+        <c:axId val="-1798637968"/>
+        <c:axId val="-1798653200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260759936"/>
+        <c:axId val="-1798637968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,7 +903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260763072"/>
+        <c:crossAx val="-1798653200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -904,7 +911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260763072"/>
+        <c:axId val="-1798653200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260759936"/>
+        <c:crossAx val="-1798637968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1032,11 +1039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="260760720"/>
-        <c:axId val="260765032"/>
+        <c:axId val="-1798648304"/>
+        <c:axId val="-1798726784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260760720"/>
+        <c:axId val="-1798648304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260765032"/>
+        <c:crossAx val="-1798726784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1054,7 +1061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260765032"/>
+        <c:axId val="-1798726784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260760720"/>
+        <c:crossAx val="-1798648304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1561,7 +1568,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1937,7 +1944,117 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11">
+        <v>7</v>
+      </c>
+      <c r="F14" s="11">
+        <v>7</v>
+      </c>
+      <c r="G14" s="11">
+        <v>7</v>
+      </c>
+      <c r="H14" s="11">
+        <v>7</v>
+      </c>
+      <c r="I14" s="11">
+        <v>7</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11">
+        <v>3</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3</v>
+      </c>
+      <c r="H15" s="11">
+        <v>3</v>
+      </c>
+      <c r="I15" s="11">
+        <v>3</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3</v>
+      </c>
+      <c r="G16" s="11">
+        <v>2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -1948,10 +2065,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -3145,7 +3263,50 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
@@ -3322,50 +3483,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3378,13 +3496,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3410,9 +3524,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="44">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -144,9 +144,6 @@
     <t>As a Admin, i want to assign to CL</t>
   </si>
   <si>
-    <t>Daniel, Onass</t>
-  </si>
-  <si>
     <t>Giap</t>
   </si>
   <si>
@@ -156,13 +153,13 @@
     <t>Chi, Giáp</t>
   </si>
   <si>
-    <t>Daniel</t>
-  </si>
-  <si>
     <t>As a User member, I want to login to the page</t>
   </si>
   <si>
     <t>Onass</t>
+  </si>
+  <si>
+    <t>Gideon, Onass</t>
   </si>
 </sst>
 </file>
@@ -380,7 +377,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -439,11 +435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1798652112"/>
-        <c:axId val="-1798643952"/>
+        <c:axId val="1571464736"/>
+        <c:axId val="1729841024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1798652112"/>
+        <c:axId val="1571464736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,7 +449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1798643952"/>
+        <c:crossAx val="1729841024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -461,7 +457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1798643952"/>
+        <c:axId val="1729841024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,7 +468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1798652112"/>
+        <c:crossAx val="1571464736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -589,11 +585,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1798639056"/>
-        <c:axId val="-1798640688"/>
+        <c:axId val="1729841568"/>
+        <c:axId val="1729833952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1798639056"/>
+        <c:axId val="1729841568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1798640688"/>
+        <c:crossAx val="1729833952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1798640688"/>
+        <c:axId val="1729833952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,7 +618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1798639056"/>
+        <c:crossAx val="1729841568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -739,11 +735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1798639600"/>
-        <c:axId val="-1798651024"/>
+        <c:axId val="1729836672"/>
+        <c:axId val="1729835040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1798639600"/>
+        <c:axId val="1729836672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1798651024"/>
+        <c:crossAx val="1729835040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -761,7 +757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1798651024"/>
+        <c:axId val="1729835040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1798639600"/>
+        <c:crossAx val="1729836672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -889,11 +885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1798637968"/>
-        <c:axId val="-1798653200"/>
+        <c:axId val="1729842112"/>
+        <c:axId val="1729831232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1798637968"/>
+        <c:axId val="1729842112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1798653200"/>
+        <c:crossAx val="1729831232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -911,7 +907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1798653200"/>
+        <c:axId val="1729831232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1798637968"/>
+        <c:crossAx val="1729842112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1039,11 +1035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1798648304"/>
-        <c:axId val="-1798726784"/>
+        <c:axId val="1729834496"/>
+        <c:axId val="1729839936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1798648304"/>
+        <c:axId val="1729834496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1798726784"/>
+        <c:crossAx val="1729839936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1798726784"/>
+        <c:axId val="1729839936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1798648304"/>
+        <c:crossAx val="1729834496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1107,18 +1103,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>528320</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1565,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1579,7 +1575,8 @@
     <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12" style="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1652,7 +1649,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>11</v>
@@ -1682,7 +1679,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>11</v>
@@ -1712,7 +1709,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>11</v>
@@ -1762,7 +1759,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>11</v>
@@ -1792,7 +1789,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>11</v>
@@ -1822,7 +1819,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>11</v>
@@ -1872,7 +1869,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>11</v>
@@ -1902,7 +1899,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>11</v>
@@ -1932,7 +1929,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>11</v>
@@ -1946,7 +1943,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>26</v>
@@ -1982,7 +1979,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>11</v>
@@ -2012,7 +2009,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>11</v>
@@ -2042,7 +2039,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>11</v>
@@ -2054,13 +2051,13 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3263,53 +3260,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -3483,10 +3434,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3495,15 +3446,53 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3523,7 +3512,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3535,10 +3524,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Sem7\COMP1640 Enterprise Web Software Development\Coursework\Github\CMR_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrbliss onass\Documents\GitHub\CMR_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -156,10 +156,10 @@
     <t>As a User member, I want to login to the page</t>
   </si>
   <si>
-    <t>Onass</t>
-  </si>
-  <si>
-    <t>Gideon, Onass</t>
+    <t>Gideon, Daniel</t>
+  </si>
+  <si>
+    <t>Daniel</t>
   </si>
 </sst>
 </file>
@@ -377,6 +377,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -435,11 +436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1571464736"/>
-        <c:axId val="1729841024"/>
+        <c:axId val="258845480"/>
+        <c:axId val="258843520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1571464736"/>
+        <c:axId val="258845480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1729841024"/>
+        <c:crossAx val="258843520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -457,7 +458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1729841024"/>
+        <c:axId val="258843520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1571464736"/>
+        <c:crossAx val="258845480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -585,11 +586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1729841568"/>
-        <c:axId val="1729833952"/>
+        <c:axId val="258843912"/>
+        <c:axId val="258838424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1729841568"/>
+        <c:axId val="258843912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1729833952"/>
+        <c:crossAx val="258838424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -607,7 +608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1729833952"/>
+        <c:axId val="258838424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1729841568"/>
+        <c:crossAx val="258843912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -735,11 +736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1729836672"/>
-        <c:axId val="1729835040"/>
+        <c:axId val="258839992"/>
+        <c:axId val="258840384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1729836672"/>
+        <c:axId val="258839992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,7 +750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1729835040"/>
+        <c:crossAx val="258840384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -757,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1729835040"/>
+        <c:axId val="258840384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1729836672"/>
+        <c:crossAx val="258839992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -885,11 +886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1729842112"/>
-        <c:axId val="1729831232"/>
+        <c:axId val="258843128"/>
+        <c:axId val="258841168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1729842112"/>
+        <c:axId val="258843128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,7 +900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1729831232"/>
+        <c:crossAx val="258841168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -907,7 +908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1729831232"/>
+        <c:axId val="258841168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1729842112"/>
+        <c:crossAx val="258843128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1035,11 +1036,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1729834496"/>
-        <c:axId val="1729839936"/>
+        <c:axId val="260324544"/>
+        <c:axId val="260319056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1729834496"/>
+        <c:axId val="260324544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1729839936"/>
+        <c:crossAx val="260319056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1057,7 +1058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1729839936"/>
+        <c:axId val="260319056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1729834496"/>
+        <c:crossAx val="260324544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1649,7 +1650,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>11</v>
@@ -1759,7 +1760,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>11</v>
@@ -1979,7 +1980,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>11</v>
@@ -3260,7 +3261,19 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -3434,18 +3447,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -3493,6 +3494,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3512,26 +3533,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
   <ds:schemaRefs>

--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrbliss onass\Documents\GitHub\CMR_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Sem7\COMP1640 Enterprise Web Software Development\Coursework\Github\CMR_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -377,7 +377,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -436,11 +435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="258845480"/>
-        <c:axId val="258843520"/>
+        <c:axId val="2133273712"/>
+        <c:axId val="2133270448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258845480"/>
+        <c:axId val="2133273712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -450,7 +449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258843520"/>
+        <c:crossAx val="2133270448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -458,7 +457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258843520"/>
+        <c:axId val="2133270448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,7 +468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258845480"/>
+        <c:crossAx val="2133273712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -586,11 +585,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="258843912"/>
-        <c:axId val="258838424"/>
+        <c:axId val="2133274800"/>
+        <c:axId val="2133266096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258843912"/>
+        <c:axId val="2133274800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258838424"/>
+        <c:crossAx val="2133266096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -608,7 +607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258838424"/>
+        <c:axId val="2133266096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258843912"/>
+        <c:crossAx val="2133274800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -736,11 +735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="258839992"/>
-        <c:axId val="258840384"/>
+        <c:axId val="2133266640"/>
+        <c:axId val="2133268272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258839992"/>
+        <c:axId val="2133266640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258840384"/>
+        <c:crossAx val="2133268272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258840384"/>
+        <c:axId val="2133268272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258839992"/>
+        <c:crossAx val="2133266640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -886,11 +885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="258843128"/>
-        <c:axId val="258841168"/>
+        <c:axId val="2133260656"/>
+        <c:axId val="2133269360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258843128"/>
+        <c:axId val="2133260656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258841168"/>
+        <c:crossAx val="2133269360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -908,7 +907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258841168"/>
+        <c:axId val="2133269360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,7 +918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258843128"/>
+        <c:crossAx val="2133260656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1036,11 +1035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="260324544"/>
-        <c:axId val="260319056"/>
+        <c:axId val="2133269904"/>
+        <c:axId val="2133271536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260324544"/>
+        <c:axId val="2133269904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260319056"/>
+        <c:crossAx val="2133271536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1058,7 +1057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260319056"/>
+        <c:axId val="2133271536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +1068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260324544"/>
+        <c:crossAx val="2133269904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1565,7 +1564,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1876,22 +1875,22 @@
         <v>11</v>
       </c>
       <c r="E11" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -3263,17 +3262,51 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -3447,73 +3480,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3533,10 +3520,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="46">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Daniel</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/151N-IJiSzJO6OrwYm_Fmqwm4BST8RixKbJs0XNB-DHo/edit#gid=0</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -261,7 +267,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -307,6 +313,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -377,6 +389,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -435,11 +448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133273712"/>
-        <c:axId val="2133270448"/>
+        <c:axId val="611106640"/>
+        <c:axId val="794072944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133273712"/>
+        <c:axId val="611106640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +462,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133270448"/>
+        <c:crossAx val="794072944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -457,7 +470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133270448"/>
+        <c:axId val="794072944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133273712"/>
+        <c:crossAx val="611106640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -585,11 +598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133274800"/>
-        <c:axId val="2133266096"/>
+        <c:axId val="794072400"/>
+        <c:axId val="794075120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133274800"/>
+        <c:axId val="794072400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133266096"/>
+        <c:crossAx val="794075120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -607,7 +620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133266096"/>
+        <c:axId val="794075120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133274800"/>
+        <c:crossAx val="794072400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -735,11 +748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133266640"/>
-        <c:axId val="2133268272"/>
+        <c:axId val="794064784"/>
+        <c:axId val="794070224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133266640"/>
+        <c:axId val="794064784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,7 +762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133268272"/>
+        <c:crossAx val="794070224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -757,7 +770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133268272"/>
+        <c:axId val="794070224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133266640"/>
+        <c:crossAx val="794064784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -885,11 +898,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133260656"/>
-        <c:axId val="2133269360"/>
+        <c:axId val="794076752"/>
+        <c:axId val="794071312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133260656"/>
+        <c:axId val="794076752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,7 +912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133269360"/>
+        <c:crossAx val="794071312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -907,7 +920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133269360"/>
+        <c:axId val="794071312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133260656"/>
+        <c:crossAx val="794076752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1035,11 +1048,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133269904"/>
-        <c:axId val="2133271536"/>
+        <c:axId val="794066960"/>
+        <c:axId val="794074576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133269904"/>
+        <c:axId val="794066960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133271536"/>
+        <c:crossAx val="794074576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1057,7 +1070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133271536"/>
+        <c:axId val="794074576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133269904"/>
+        <c:crossAx val="794066960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1561,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1622,7 +1635,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E2" s="11">
         <v>7</v>
@@ -1652,7 +1665,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3" s="11">
         <v>3</v>
@@ -1732,7 +1745,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E6" s="11">
         <v>7</v>
@@ -1762,7 +1775,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E7" s="11">
         <v>3</v>
@@ -1842,7 +1855,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E10" s="11">
         <v>7</v>
@@ -1872,7 +1885,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E11" s="11">
         <v>2</v>
@@ -1952,7 +1965,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E14" s="11">
         <v>7</v>
@@ -1982,7 +1995,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E15" s="11">
         <v>3</v>
@@ -2051,14 +2064,24 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E38" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E39" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3260,50 +3283,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
@@ -3480,7 +3460,50 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3493,9 +3516,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3521,13 +3548,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Sem7\COMP1640 Enterprise Web Software Development\Coursework\Github\CMR_Management\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <sheet name="Group 3" sheetId="8" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="49">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -166,6 +161,15 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>As a CL, I want to create CMR for course that assigned to me</t>
+  </si>
+  <si>
+    <t>As aCL, I want to send CMR to CM to approve by email</t>
+  </si>
+  <si>
+    <t>As a CL, I want to send approved CMRs to DLT</t>
   </si>
 </sst>
 </file>
@@ -302,6 +306,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -313,12 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -448,11 +452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="611106640"/>
-        <c:axId val="794072944"/>
+        <c:axId val="67400832"/>
+        <c:axId val="67402368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="611106640"/>
+        <c:axId val="67400832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,7 +466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="794072944"/>
+        <c:crossAx val="67402368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -470,7 +474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="794072944"/>
+        <c:axId val="67402368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -481,7 +485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="611106640"/>
+        <c:crossAx val="67400832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -598,11 +602,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="794072400"/>
-        <c:axId val="794075120"/>
+        <c:axId val="67430656"/>
+        <c:axId val="67645440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="794072400"/>
+        <c:axId val="67430656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="794075120"/>
+        <c:crossAx val="67645440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -620,7 +624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="794075120"/>
+        <c:axId val="67645440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="794072400"/>
+        <c:crossAx val="67430656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -690,6 +694,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -748,11 +753,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="794064784"/>
-        <c:axId val="794070224"/>
+        <c:axId val="68825088"/>
+        <c:axId val="68826624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="794064784"/>
+        <c:axId val="68825088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,7 +767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="794070224"/>
+        <c:crossAx val="68826624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -770,7 +775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="794070224"/>
+        <c:axId val="68826624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="794064784"/>
+        <c:crossAx val="68825088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -898,11 +903,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="794076752"/>
-        <c:axId val="794071312"/>
+        <c:axId val="68859392"/>
+        <c:axId val="68860928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="794076752"/>
+        <c:axId val="68859392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,7 +917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="794071312"/>
+        <c:crossAx val="68860928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -920,7 +925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="794071312"/>
+        <c:axId val="68860928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="794076752"/>
+        <c:crossAx val="68859392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1048,11 +1053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="794066960"/>
-        <c:axId val="794074576"/>
+        <c:axId val="70243072"/>
+        <c:axId val="70244608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="794066960"/>
+        <c:axId val="70243072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,7 +1067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="794074576"/>
+        <c:crossAx val="70244608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1070,7 +1075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="794074576"/>
+        <c:axId val="70244608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="794066960"/>
+        <c:crossAx val="70243072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1330,7 +1335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1365,7 +1370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1576,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1625,7 +1630,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1657,7 +1662,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
@@ -1687,7 +1692,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
@@ -1717,7 +1722,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="12" t="s">
         <v>35</v>
       </c>
@@ -1735,7 +1740,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1767,7 +1772,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="10" t="s">
         <v>33</v>
       </c>
@@ -1797,7 +1802,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
@@ -1827,7 +1832,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="12" t="s">
         <v>35</v>
       </c>
@@ -1845,7 +1850,7 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1877,7 +1882,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
@@ -1907,7 +1912,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>28</v>
       </c>
@@ -1937,7 +1942,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
@@ -1955,7 +1960,7 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1987,7 +1992,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>33</v>
       </c>
@@ -2017,7 +2022,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="10" t="s">
         <v>28</v>
       </c>
@@ -2047,7 +2052,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2064,6 +2069,21 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E38" s="3" t="s">
         <v>14</v>
@@ -2075,12 +2095,12 @@
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2153,7 +2173,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2170,7 +2190,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
@@ -2185,13 +2205,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
@@ -2206,7 +2226,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2223,7 +2243,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
@@ -2238,7 +2258,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2253,7 +2273,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
@@ -2374,7 +2394,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2406,7 +2426,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2436,7 +2456,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2466,7 +2486,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2498,7 +2518,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2528,7 +2548,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2558,7 +2578,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -2694,7 +2714,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2726,7 +2746,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2756,7 +2776,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2786,7 +2806,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2818,7 +2838,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2848,7 +2868,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2878,7 +2898,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3014,7 +3034,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3046,7 +3066,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -3076,7 +3096,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -3106,7 +3126,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3138,7 +3158,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3168,7 +3188,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -3198,7 +3218,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3283,10 +3303,62 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -3460,74 +3532,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3547,18 +3571,14 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Sem7\COMP1640 Enterprise Web Software Development\Coursework\Github\CMR_Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="5" r:id="rId1"/>
-    <sheet name="Group 1" sheetId="6" r:id="rId2"/>
-    <sheet name="Group 2" sheetId="7" r:id="rId3"/>
+    <sheet name="Sprint 2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sprint 3" sheetId="7" r:id="rId3"/>
     <sheet name="Group 3" sheetId="8" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="44">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -97,28 +102,13 @@
     <t>Some sprint goal</t>
   </si>
   <si>
-    <t>Login Function</t>
-  </si>
-  <si>
-    <t>Add tenants</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
-    <t>Design interface</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
-    <t>Unit test</t>
-  </si>
-  <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Not started</t>
   </si>
   <si>
     <t>As a CL, I want assigned to a course  for 1 year</t>
@@ -222,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -243,6 +233,37 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -271,7 +292,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -323,6 +344,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -452,11 +482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67400832"/>
-        <c:axId val="67402368"/>
+        <c:axId val="-645049216"/>
+        <c:axId val="-484798304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67400832"/>
+        <c:axId val="-645049216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -466,7 +496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67402368"/>
+        <c:crossAx val="-484798304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -474,7 +504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67402368"/>
+        <c:axId val="-484798304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,7 +515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67400832"/>
+        <c:crossAx val="-645049216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -544,6 +574,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -602,11 +633,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67430656"/>
-        <c:axId val="67645440"/>
+        <c:axId val="-484799392"/>
+        <c:axId val="-484803744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67430656"/>
+        <c:axId val="-484799392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67645440"/>
+        <c:crossAx val="-484803744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -624,7 +655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67645440"/>
+        <c:axId val="-484803744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,7 +666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67430656"/>
+        <c:crossAx val="-484799392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -753,11 +784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68825088"/>
-        <c:axId val="68826624"/>
+        <c:axId val="-484799936"/>
+        <c:axId val="-484801568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68825088"/>
+        <c:axId val="-484799936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,7 +798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68826624"/>
+        <c:crossAx val="-484801568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -775,7 +806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68826624"/>
+        <c:axId val="-484801568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68825088"/>
+        <c:crossAx val="-484799936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -903,11 +934,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68859392"/>
-        <c:axId val="68860928"/>
+        <c:axId val="-484804832"/>
+        <c:axId val="-484804288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68859392"/>
+        <c:axId val="-484804832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68860928"/>
+        <c:crossAx val="-484804288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -925,7 +956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68860928"/>
+        <c:axId val="-484804288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68859392"/>
+        <c:crossAx val="-484804832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1053,11 +1084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70243072"/>
-        <c:axId val="70244608"/>
+        <c:axId val="-484184864"/>
+        <c:axId val="-484184320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70243072"/>
+        <c:axId val="-484184864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70244608"/>
+        <c:crossAx val="-484184320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1075,7 +1106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70244608"/>
+        <c:axId val="-484184320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70243072"/>
+        <c:crossAx val="-484184864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1335,7 +1366,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1370,7 +1401,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1581,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1631,16 +1662,16 @@
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="11">
         <v>7</v>
@@ -1664,13 +1695,13 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3" s="11">
         <v>3</v>
@@ -1694,10 +1725,10 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>11</v>
@@ -1724,10 +1755,10 @@
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>11</v>
@@ -1741,16 +1772,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E6" s="11">
         <v>7</v>
@@ -1774,13 +1805,13 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7" s="11">
         <v>3</v>
@@ -1804,10 +1835,10 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>11</v>
@@ -1834,10 +1865,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>11</v>
@@ -1851,16 +1882,16 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="11">
         <v>7</v>
@@ -1884,13 +1915,13 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" s="11">
         <v>2</v>
@@ -1914,10 +1945,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>11</v>
@@ -1944,10 +1975,10 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>11</v>
@@ -1961,16 +1992,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E14" s="11">
         <v>7</v>
@@ -1994,13 +2025,13 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" s="11">
         <v>3</v>
@@ -2024,10 +2055,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>11</v>
@@ -2054,10 +2085,10 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>11</v>
@@ -2069,21 +2100,6 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E38" s="3" t="s">
         <v>14</v>
@@ -2096,12 +2112,12 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2126,15 +2142,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="6" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12" style="1"/>
@@ -2173,155 +2190,382 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="11">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11">
+        <v>7</v>
+      </c>
+      <c r="G2" s="11">
+        <v>7</v>
+      </c>
+      <c r="H2" s="11">
+        <v>7</v>
+      </c>
+      <c r="I2" s="11">
+        <v>7</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11">
+        <v>3</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="6" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="11">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11">
+        <v>7</v>
+      </c>
+      <c r="G6" s="11">
+        <v>7</v>
+      </c>
+      <c r="H6" s="11">
+        <v>7</v>
+      </c>
+      <c r="I6" s="11">
+        <v>7</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="6" t="s">
+      <c r="C7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>3</v>
+      </c>
+      <c r="H7" s="11">
+        <v>3</v>
+      </c>
+      <c r="I7" s="11">
+        <v>3</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>3</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="D10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="11">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11">
+        <v>7</v>
+      </c>
+      <c r="G10" s="11">
+        <v>7</v>
+      </c>
+      <c r="H10" s="11">
+        <v>7</v>
+      </c>
+      <c r="I10" s="11">
+        <v>7</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" ref="E11:J11" si="0">SUM(E2:E9)</f>
-        <v>15</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11">
+        <v>3</v>
+      </c>
+      <c r="G12" s="11">
+        <v>2</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
@@ -2334,9 +2578,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3303,62 +3549,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -3532,26 +3723,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3571,6 +3801,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>

--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -339,12 +339,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -353,6 +347,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -423,7 +423,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -482,11 +481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-645049216"/>
-        <c:axId val="-484798304"/>
+        <c:axId val="-1445081888"/>
+        <c:axId val="-1445081344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-645049216"/>
+        <c:axId val="-1445081888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -496,7 +495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-484798304"/>
+        <c:crossAx val="-1445081344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -504,7 +503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-484798304"/>
+        <c:axId val="-1445081344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-645049216"/>
+        <c:crossAx val="-1445081888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -633,11 +632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-484799392"/>
-        <c:axId val="-484803744"/>
+        <c:axId val="-1400499472"/>
+        <c:axId val="-1400500016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-484799392"/>
+        <c:axId val="-1400499472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,7 +646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-484803744"/>
+        <c:crossAx val="-1400500016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -655,7 +654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-484803744"/>
+        <c:axId val="-1400500016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-484799392"/>
+        <c:crossAx val="-1400499472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -725,7 +724,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -784,11 +782,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-484799936"/>
-        <c:axId val="-484801568"/>
+        <c:axId val="-1400506000"/>
+        <c:axId val="-1400500560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-484799936"/>
+        <c:axId val="-1400506000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-484801568"/>
+        <c:crossAx val="-1400500560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -806,7 +804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-484801568"/>
+        <c:axId val="-1400500560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,7 +815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-484799936"/>
+        <c:crossAx val="-1400506000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -934,11 +932,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-484804832"/>
-        <c:axId val="-484804288"/>
+        <c:axId val="-1400507632"/>
+        <c:axId val="-1400497840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-484804832"/>
+        <c:axId val="-1400507632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,7 +946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-484804288"/>
+        <c:crossAx val="-1400497840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -956,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-484804288"/>
+        <c:axId val="-1400497840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-484804832"/>
+        <c:crossAx val="-1400507632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1084,11 +1082,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-484184864"/>
-        <c:axId val="-484184320"/>
+        <c:axId val="-1400497296"/>
+        <c:axId val="-1400496752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-484184864"/>
+        <c:axId val="-1400497296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,7 +1096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-484184320"/>
+        <c:crossAx val="-1400496752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1106,7 +1104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-484184320"/>
+        <c:axId val="-1400496752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,7 +1115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-484184864"/>
+        <c:crossAx val="-1400497296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2143,7 +2141,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2190,7 +2188,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2222,7 +2220,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="10" t="s">
         <v>28</v>
       </c>
@@ -2252,7 +2250,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
@@ -2282,7 +2280,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="12" t="s">
         <v>30</v>
       </c>
@@ -2300,7 +2298,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2332,7 +2330,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
@@ -2362,7 +2360,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
@@ -2392,7 +2390,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="12" t="s">
         <v>30</v>
       </c>
@@ -2410,7 +2408,7 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2442,7 +2440,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
@@ -2472,7 +2470,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
@@ -2502,7 +2500,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="12" t="s">
         <v>30</v>
       </c>
@@ -2585,7 +2583,8 @@
     <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2640,7 +2639,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2672,7 +2671,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2702,7 +2701,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2732,7 +2731,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2764,7 +2763,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2794,7 +2793,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2824,7 +2823,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -2960,7 +2959,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2992,7 +2991,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -3022,7 +3021,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -3052,7 +3051,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3084,7 +3083,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3114,7 +3113,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -3144,7 +3143,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3280,7 +3279,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3312,7 +3311,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -3342,7 +3341,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -3372,7 +3371,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3404,7 +3403,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3434,7 +3433,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -3464,7 +3463,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3549,7 +3548,62 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -3723,65 +3777,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3801,22 +3816,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>

--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -481,11 +481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1445081888"/>
-        <c:axId val="-1445081344"/>
+        <c:axId val="-1572931184"/>
+        <c:axId val="-1572924112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1445081888"/>
+        <c:axId val="-1572931184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1445081344"/>
+        <c:crossAx val="-1572924112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1445081344"/>
+        <c:axId val="-1572924112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,7 +514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1445081888"/>
+        <c:crossAx val="-1572931184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -632,11 +632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1400499472"/>
-        <c:axId val="-1400500016"/>
+        <c:axId val="-1572921392"/>
+        <c:axId val="-1572925744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1400499472"/>
+        <c:axId val="-1572921392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1400500016"/>
+        <c:crossAx val="-1572925744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -654,7 +654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1400500016"/>
+        <c:axId val="-1572925744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,7 +665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1400499472"/>
+        <c:crossAx val="-1572921392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -782,11 +782,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1400506000"/>
-        <c:axId val="-1400500560"/>
+        <c:axId val="-1572920304"/>
+        <c:axId val="-1572927920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1400506000"/>
+        <c:axId val="-1572920304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1400500560"/>
+        <c:crossAx val="-1572927920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -804,7 +804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1400500560"/>
+        <c:axId val="-1572927920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1400506000"/>
+        <c:crossAx val="-1572920304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -932,11 +932,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1400507632"/>
-        <c:axId val="-1400497840"/>
+        <c:axId val="-1572920848"/>
+        <c:axId val="-1572934448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1400507632"/>
+        <c:axId val="-1572920848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1400497840"/>
+        <c:crossAx val="-1572934448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -954,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1400497840"/>
+        <c:axId val="-1572934448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1400507632"/>
+        <c:crossAx val="-1572920848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1082,11 +1082,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1400497296"/>
-        <c:axId val="-1400496752"/>
+        <c:axId val="-1572932272"/>
+        <c:axId val="-1572926832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1400497296"/>
+        <c:axId val="-1572932272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1400496752"/>
+        <c:crossAx val="-1572926832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1104,7 +1104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1400496752"/>
+        <c:axId val="-1572926832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,7 +1115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1400497296"/>
+        <c:crossAx val="-1572932272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1611,7 +1611,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1726,10 +1726,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E4" s="11">
         <v>3</v>
@@ -1738,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="11">
         <v>1</v>
@@ -2141,7 +2141,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2255,7 +2255,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>11</v>
@@ -3548,62 +3548,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -3777,26 +3722,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3816,6 +3800,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>

--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="5" r:id="rId1"/>
@@ -481,11 +481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1572931184"/>
-        <c:axId val="-1572924112"/>
+        <c:axId val="1308824448"/>
+        <c:axId val="1308822272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1572931184"/>
+        <c:axId val="1308824448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1572924112"/>
+        <c:crossAx val="1308822272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1572924112"/>
+        <c:axId val="1308822272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,7 +514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1572931184"/>
+        <c:crossAx val="1308824448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -632,11 +632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1572921392"/>
-        <c:axId val="-1572925744"/>
+        <c:axId val="1308815200"/>
+        <c:axId val="1308817376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1572921392"/>
+        <c:axId val="1308815200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1572925744"/>
+        <c:crossAx val="1308817376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -654,7 +654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1572925744"/>
+        <c:axId val="1308817376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,7 +665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1572921392"/>
+        <c:crossAx val="1308815200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -782,11 +782,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1572920304"/>
-        <c:axId val="-1572927920"/>
+        <c:axId val="1308828256"/>
+        <c:axId val="1308817920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1572920304"/>
+        <c:axId val="1308828256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1572927920"/>
+        <c:crossAx val="1308817920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -804,7 +804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1572927920"/>
+        <c:axId val="1308817920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1572920304"/>
+        <c:crossAx val="1308828256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -932,11 +932,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1572920848"/>
-        <c:axId val="-1572934448"/>
+        <c:axId val="1308826080"/>
+        <c:axId val="1308815744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1572920848"/>
+        <c:axId val="1308826080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1572934448"/>
+        <c:crossAx val="1308815744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -954,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1572934448"/>
+        <c:axId val="1308815744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1572920848"/>
+        <c:crossAx val="1308826080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1082,11 +1082,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1572932272"/>
-        <c:axId val="-1572926832"/>
+        <c:axId val="1308814656"/>
+        <c:axId val="1308816288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1572932272"/>
+        <c:axId val="1308814656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1572926832"/>
+        <c:crossAx val="1308816288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1104,7 +1104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1572926832"/>
+        <c:axId val="1308816288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,7 +1115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1572932272"/>
+        <c:crossAx val="1308814656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1610,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1759,7 +1759,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -2140,7 +2140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3548,7 +3548,62 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -3722,65 +3777,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3800,22 +3816,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>

--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="62">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -141,9 +141,6 @@
     <t>As a User member, I want to login to the page</t>
   </si>
   <si>
-    <t>Gideon, Daniel</t>
-  </si>
-  <si>
     <t>Daniel</t>
   </si>
   <si>
@@ -160,6 +157,63 @@
   </si>
   <si>
     <t>As a CL, I want to send approved CMRs to DLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daniel</t>
+  </si>
+  <si>
+    <t>Daniel, Gideon</t>
+  </si>
+  <si>
+    <t>Daniel,Gideon(Idea only)</t>
+  </si>
+  <si>
+    <t>Giáp</t>
+  </si>
+  <si>
+    <t>Gideon(Ideal only), Daniel</t>
+  </si>
+  <si>
+    <t>Truong</t>
+  </si>
+  <si>
+    <t>Ha, Chi</t>
+  </si>
+  <si>
+    <t>Chi, Truong</t>
+  </si>
+  <si>
+    <t>Giap(make proc, repair data references)</t>
+  </si>
+  <si>
+    <t>Chi, Giap</t>
+  </si>
+  <si>
+    <t>Chi, Ha, Giap(make proc, repair data references)</t>
+  </si>
+  <si>
+    <t>Giap, Ha</t>
+  </si>
+  <si>
+    <t>As a DLT, I want check CMR email</t>
+  </si>
+  <si>
+    <t>As a DLT, I want feedback CMR</t>
+  </si>
+  <si>
+    <t>As a PVC, I want to see list CMR approved</t>
+  </si>
+  <si>
+    <t>As a CM, I want to see CMR unapproved yet</t>
+  </si>
+  <si>
+    <t>As a DLT, I want see list CMR approved but not feedback by DLT</t>
+  </si>
+  <si>
+    <t>Ha</t>
+  </si>
+  <si>
+    <t>Giap(references database, more table)</t>
   </si>
 </sst>
 </file>
@@ -292,7 +346,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -353,6 +407,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -423,6 +480,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -481,11 +539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1308824448"/>
-        <c:axId val="1308822272"/>
+        <c:axId val="1958829008"/>
+        <c:axId val="1958823568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1308824448"/>
+        <c:axId val="1958829008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1308822272"/>
+        <c:crossAx val="1958823568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1308822272"/>
+        <c:axId val="1958823568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,7 +572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1308824448"/>
+        <c:crossAx val="1958829008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -632,11 +690,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1308815200"/>
-        <c:axId val="1308817376"/>
+        <c:axId val="1933254304"/>
+        <c:axId val="86101952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1308815200"/>
+        <c:axId val="1933254304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1308817376"/>
+        <c:crossAx val="86101952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -654,7 +712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1308817376"/>
+        <c:axId val="86101952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,7 +723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1308815200"/>
+        <c:crossAx val="1933254304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -724,6 +782,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -782,11 +841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1308828256"/>
-        <c:axId val="1308817920"/>
+        <c:axId val="86110112"/>
+        <c:axId val="86111200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1308828256"/>
+        <c:axId val="86110112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1308817920"/>
+        <c:crossAx val="86111200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -804,7 +863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1308817920"/>
+        <c:axId val="86111200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1308828256"/>
+        <c:crossAx val="86110112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -874,6 +933,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -932,11 +992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1308826080"/>
-        <c:axId val="1308815744"/>
+        <c:axId val="86106304"/>
+        <c:axId val="86099232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1308826080"/>
+        <c:axId val="86106304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +1006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1308815744"/>
+        <c:crossAx val="86099232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -954,7 +1014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1308815744"/>
+        <c:axId val="86099232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +1025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1308826080"/>
+        <c:crossAx val="86106304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1082,11 +1142,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1308814656"/>
-        <c:axId val="1308816288"/>
+        <c:axId val="86103040"/>
+        <c:axId val="86107936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1308814656"/>
+        <c:axId val="86103040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1308816288"/>
+        <c:crossAx val="86107936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1104,7 +1164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1308816288"/>
+        <c:axId val="86107936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,7 +1175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1308814656"/>
+        <c:crossAx val="86103040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1220,21 +1280,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>162560</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>690880</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61595</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1611,7 +1673,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1666,7 +1728,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>26</v>
@@ -1696,7 +1758,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>26</v>
@@ -1776,7 +1838,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>26</v>
@@ -1836,10 +1898,10 @@
         <v>25</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E8" s="11">
         <v>3</v>
@@ -1869,7 +1931,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1916,7 +1978,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>26</v>
@@ -1949,7 +2011,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E12" s="11">
         <v>3</v>
@@ -1979,7 +2041,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1996,7 +2058,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>26</v>
@@ -2026,7 +2088,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>26</v>
@@ -2056,10 +2118,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E16" s="11">
         <v>3</v>
@@ -2089,14 +2151,26 @@
         <v>35</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="E17" s="13">
+        <v>5</v>
+      </c>
+      <c r="F17" s="13">
+        <v>5</v>
+      </c>
+      <c r="G17" s="13">
+        <v>5</v>
+      </c>
+      <c r="H17" s="13">
+        <v>5</v>
+      </c>
+      <c r="I17" s="13">
+        <v>5</v>
+      </c>
+      <c r="J17" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E38" s="3" t="s">
@@ -2110,12 +2184,12 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2141,14 +2215,14 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="6" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -2189,13 +2263,13 @@
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>26</v>
@@ -2225,7 +2299,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>26</v>
@@ -2258,7 +2332,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E4" s="11">
         <v>3</v>
@@ -2285,10 +2359,10 @@
         <v>30</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -2299,13 +2373,13 @@
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>26</v>
@@ -2368,7 +2442,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E8" s="11">
         <v>3</v>
@@ -2395,10 +2469,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2409,13 +2483,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>26</v>
@@ -2445,7 +2519,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>26</v>
@@ -2475,10 +2549,10 @@
         <v>25</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E12" s="11">
         <v>3</v>
@@ -2505,65 +2579,151 @@
         <v>30</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="E13" s="13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="13">
+        <v>8</v>
+      </c>
+      <c r="H13" s="13">
+        <v>7</v>
+      </c>
+      <c r="I13" s="13">
+        <v>5</v>
+      </c>
+      <c r="J13" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="A14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="11">
+        <v>4</v>
+      </c>
+      <c r="F14" s="11">
+        <v>5</v>
+      </c>
+      <c r="G14" s="11">
+        <v>5</v>
+      </c>
+      <c r="H14" s="11">
+        <v>6</v>
+      </c>
+      <c r="I14" s="11">
+        <v>4</v>
+      </c>
+      <c r="J14" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="B15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4</v>
+      </c>
+      <c r="G15" s="11">
+        <v>4</v>
+      </c>
+      <c r="H15" s="11">
+        <v>5</v>
+      </c>
+      <c r="I15" s="11">
+        <v>5</v>
+      </c>
+      <c r="J15" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="B16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="11">
+        <v>6</v>
+      </c>
+      <c r="F16" s="11">
+        <v>7</v>
+      </c>
+      <c r="G16" s="11">
+        <v>7</v>
+      </c>
+      <c r="H16" s="11">
+        <v>7</v>
+      </c>
+      <c r="I16" s="11">
+        <v>7</v>
+      </c>
+      <c r="J16" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="13">
+        <v>5</v>
+      </c>
+      <c r="F17" s="13">
+        <v>5</v>
+      </c>
+      <c r="G17" s="13">
+        <v>5</v>
+      </c>
+      <c r="H17" s="13">
+        <v>5</v>
+      </c>
+      <c r="I17" s="13">
+        <v>5</v>
+      </c>
+      <c r="J17" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
@@ -2590,17 +2750,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A8"/>
+      <selection sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="6" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12" style="1"/>
@@ -2639,269 +2800,497 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="A2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="11">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11">
+        <v>7</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
         <v>2</v>
       </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
+      <c r="A5" s="16"/>
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="A6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>7</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="A8" s="23"/>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" ref="E10:J10" si="0">SUM(E2:E8)</f>
-        <v>15</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
+      <c r="A10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>7</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>7</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
+  <mergeCells count="4">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3548,62 +3937,10 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -3777,26 +4114,74 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3816,14 +4201,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="63">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Giap(make proc, repair data references)</t>
   </si>
   <si>
-    <t>Chi, Giap</t>
-  </si>
-  <si>
     <t>Chi, Ha, Giap(make proc, repair data references)</t>
   </si>
   <si>
@@ -214,6 +211,12 @@
   </si>
   <si>
     <t>Giap(references database, more table)</t>
+  </si>
+  <si>
+    <t>Chi, Giap, Truong</t>
+  </si>
+  <si>
+    <t>Ha, Truong</t>
   </si>
 </sst>
 </file>
@@ -402,14 +405,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -480,7 +483,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -539,11 +541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1958829008"/>
-        <c:axId val="1958823568"/>
+        <c:axId val="-1998073184"/>
+        <c:axId val="-1998082432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1958829008"/>
+        <c:axId val="-1998073184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1958823568"/>
+        <c:crossAx val="-1998082432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -561,7 +563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1958823568"/>
+        <c:axId val="-1998082432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1958829008"/>
+        <c:crossAx val="-1998073184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -690,11 +692,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1933254304"/>
-        <c:axId val="86101952"/>
+        <c:axId val="-1998071552"/>
+        <c:axId val="-1998070464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1933254304"/>
+        <c:axId val="-1998071552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86101952"/>
+        <c:crossAx val="-1998070464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -712,7 +714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86101952"/>
+        <c:axId val="-1998070464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1933254304"/>
+        <c:crossAx val="-1998071552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -782,7 +784,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -841,11 +842,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86110112"/>
-        <c:axId val="86111200"/>
+        <c:axId val="-1998082976"/>
+        <c:axId val="-1998077536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86110112"/>
+        <c:axId val="-1998082976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86111200"/>
+        <c:crossAx val="-1998077536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -863,7 +864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86111200"/>
+        <c:axId val="-1998077536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86110112"/>
+        <c:crossAx val="-1998082976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -933,7 +934,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -992,11 +992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86106304"/>
-        <c:axId val="86099232"/>
+        <c:axId val="-1998081888"/>
+        <c:axId val="-1998075904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86106304"/>
+        <c:axId val="-1998081888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,7 +1006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86099232"/>
+        <c:crossAx val="-1998075904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1014,7 +1014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86099232"/>
+        <c:axId val="-1998075904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86106304"/>
+        <c:crossAx val="-1998081888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1142,11 +1142,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86103040"/>
-        <c:axId val="86107936"/>
+        <c:axId val="-1998081344"/>
+        <c:axId val="-1998073728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86103040"/>
+        <c:axId val="-1998081344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86107936"/>
+        <c:crossAx val="-1998073728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1164,7 +1164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86107936"/>
+        <c:axId val="-1998073728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86103040"/>
+        <c:crossAx val="-1998081344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1672,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1728,7 +1728,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>26</v>
@@ -1818,7 +1818,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>26</v>
@@ -1838,7 +1838,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>26</v>
@@ -2214,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2269,7 +2269,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>26</v>
@@ -2489,7 +2489,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>26</v>
@@ -2605,13 +2605,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>26</v>
@@ -2671,7 +2671,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>26</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
@@ -2910,8 +2910,8 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>59</v>
+      <c r="A6" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>24</v>
@@ -2942,7 +2942,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
@@ -2972,7 +2972,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
@@ -3002,7 +3002,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
@@ -3032,8 +3032,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>56</v>
+      <c r="A10" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>24</v>
@@ -3064,7 +3064,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
@@ -3094,7 +3094,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
@@ -3124,7 +3124,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>24</v>
@@ -3221,7 +3221,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>26</v>
@@ -3348,7 +3348,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3380,7 +3380,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -3410,7 +3410,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -3440,7 +3440,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3472,7 +3472,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3502,7 +3502,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -3532,7 +3532,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3668,7 +3668,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3700,7 +3700,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -3730,7 +3730,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -3760,7 +3760,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3792,7 +3792,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3822,7 +3822,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -3852,7 +3852,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3937,7 +3937,50 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
@@ -4114,50 +4157,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4170,13 +4170,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4202,9 +4198,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
